--- a/Entrega 4/Pruebas/REAUNUDAR_EXAMEN.xlsx
+++ b/Entrega 4/Pruebas/REAUNUDAR_EXAMEN.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raziel\Desktop\Avance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0C2CC04-BC7B-40DD-9006-6DF03C8BC17F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D2EBAF-9FFC-45F8-A668-A7B3681FCDE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{888290F3-8780-4890-A37C-DA99D63A5140}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{888290F3-8780-4890-A37C-DA99D63A5140}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>ID</t>
   </si>
@@ -47,13 +49,46 @@
     <t>Reaunudar examen</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>Reaunudar examen estatus terminado</t>
   </si>
   <si>
     <t>Si el usuario quiere reaunudar el examen cuando el estatus es "terminado", entonces el sistema muestra un mensaje inidicando que el examen ya no esta disponible</t>
+  </si>
+  <si>
+    <t>Casos de prueba</t>
+  </si>
+  <si>
+    <t>Estatus</t>
+  </si>
+  <si>
+    <t>Resultado esperado</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Reaundar examen</t>
+  </si>
+  <si>
+    <t>El estatus del examen es "activo" por lo tanto el examen se puede reaundar</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Error: el examen ya no esta disponible</t>
+  </si>
+  <si>
+    <t>Se pasa a la pantalla de examen</t>
+  </si>
+  <si>
+    <t>Casos de prueba (datos)</t>
+  </si>
+  <si>
+    <t>Terminado</t>
+  </si>
+  <si>
+    <t>Activo</t>
   </si>
 </sst>
 </file>
@@ -405,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54E230D8-C783-4892-B316-B87A1FB5CE0F}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -434,14 +469,171 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F04EAD-9B84-49F0-8711-A3CA4817C732}">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="57.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{913B59C2-7046-4EDE-807D-17AC01F75188}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="147" customWidth="1"/>
+    <col min="5" max="5" width="34.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
